--- a/RequestCodes.xlsx
+++ b/RequestCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herac\Documents\GitHub\Proyecto2P_Chatrooms_Heraclito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DAD3F3-7B56-4E28-845D-0F53736BA046}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7AB0D5-D887-40C1-8C7B-B9BB6F0D32C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" activeTab="1" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Petición</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Individual (Admin)</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>Individual (Requester)</t>
   </si>
   <si>
@@ -130,7 +127,7 @@
     <t>UTF</t>
   </si>
   <si>
-    <t>Respuesta</t>
+    <t>Salida de sala</t>
   </si>
 </sst>
 </file>
@@ -146,12 +143,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,172 +486,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204BCBBA-238B-4E33-B50B-36D8865E5482}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -657,140 +664,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8D1D9-70CE-4EFF-BA17-6A8B00B5C024}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/RequestCodes.xlsx
+++ b/RequestCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herac\Documents\GitHub\Proyecto2P_Chatrooms_Heraclito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7AB0D5-D887-40C1-8C7B-B9BB6F0D32C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604BADF7-B3C5-4CB4-9C6D-9D5D04A82378}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" activeTab="1" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Petición</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Salida de sala</t>
+  </si>
+  <si>
+    <t>Selección | Solicitante</t>
+  </si>
+  <si>
+    <t>Boolean | string</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204BCBBA-238B-4E33-B50B-36D8865E5482}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,6 +544,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -555,6 +562,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -572,6 +580,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -657,8 +666,26 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -751,6 +778,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -773,6 +801,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -784,6 +813,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>

--- a/RequestCodes.xlsx
+++ b/RequestCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herac\Documents\GitHub\Proyecto2P_Chatrooms_Heraclito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604BADF7-B3C5-4CB4-9C6D-9D5D04A82378}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735BCC6-4380-4427-AA56-4FAFADC06D40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" activeTab="1" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Petición</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Boolean | string</t>
+  </si>
+  <si>
+    <t>Desconexión de usuario</t>
+  </si>
+  <si>
+    <t>Usuario eliminado</t>
   </si>
 </sst>
 </file>
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204BCBBA-238B-4E33-B50B-36D8865E5482}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +604,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -650,6 +657,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -667,6 +675,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -681,6 +690,20 @@
       </c>
       <c r="F10" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8D1D9-70CE-4EFF-BA17-6A8B00B5C024}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,6 +767,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -755,6 +779,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -790,6 +815,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -835,6 +861,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RequestCodes.xlsx
+++ b/RequestCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herac\Documents\GitHub\Proyecto2P_Chatrooms_Heraclito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735BCC6-4380-4427-AA56-4FAFADC06D40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7783C4E-4513-4640-AFB1-1B50E2B1A04F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" activeTab="1" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="36">
   <si>
     <t>Petición</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Respuesta de union a sala</t>
   </si>
   <si>
-    <t>Remoción de una sala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Usuario </t>
   </si>
   <si>
@@ -100,21 +97,9 @@
     <t>Individual (Requester)</t>
   </si>
   <si>
-    <t>Salida de admin</t>
-  </si>
-  <si>
-    <t>Nuevo admin (random)</t>
-  </si>
-  <si>
-    <t>Individual (Nvo admin)</t>
-  </si>
-  <si>
     <t>Eliminar sala</t>
   </si>
   <si>
-    <t>Sala eliminada</t>
-  </si>
-  <si>
     <t>Eliminar usuario de sala</t>
   </si>
   <si>
@@ -140,6 +125,21 @@
   </si>
   <si>
     <t>Usuario eliminado</t>
+  </si>
+  <si>
+    <t>Agregar usuario a sala</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Usuario agregado por admin</t>
+  </si>
+  <si>
+    <t>Sala eliminada por admin</t>
+  </si>
+  <si>
+    <t>Notificación de usuario eliminado</t>
   </si>
 </sst>
 </file>
@@ -181,9 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -543,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -561,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -576,19 +577,19 @@
         <v>103</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>104</v>
@@ -597,33 +598,33 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>106</v>
@@ -632,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -650,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -659,7 +660,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -668,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -683,24 +684,24 @@
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -714,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8D1D9-70CE-4EFF-BA17-6A8B00B5C024}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,9 +780,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -851,14 +852,15 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -873,6 +875,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RequestCodes.xlsx
+++ b/RequestCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herac\Documents\GitHub\Proyecto2P_Chatrooms_Heraclito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7783C4E-4513-4640-AFB1-1B50E2B1A04F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AE98E0-1021-42EE-B14C-8AFC45DE8085}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" activeTab="1" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
+    <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
   </bookViews>
   <sheets>
     <sheet name="Server" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Petición</t>
   </si>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204BCBBA-238B-4E33-B50B-36D8865E5482}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8D1D9-70CE-4EFF-BA17-6A8B00B5C024}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/RequestCodes.xlsx
+++ b/RequestCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herac\Documents\GitHub\Proyecto2P_Chatrooms_Heraclito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AE98E0-1021-42EE-B14C-8AFC45DE8085}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C3A2C0-CD91-4203-B767-A22E049497DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Petición</t>
   </si>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204BCBBA-238B-4E33-B50B-36D8865E5482}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,6 +699,9 @@
       </c>
       <c r="C11">
         <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>

--- a/RequestCodes.xlsx
+++ b/RequestCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herac\Documents\GitHub\Proyecto2P_Chatrooms_Heraclito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C3A2C0-CD91-4203-B767-A22E049497DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912CD14-2A20-43F0-8947-6019C5A0F774}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="636" windowWidth="14280" windowHeight="8952" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
+    <workbookView xWindow="3948" yWindow="2148" windowWidth="14280" windowHeight="8952" activeTab="1" xr2:uid="{C26B2FFB-345C-4A78-B6E7-17B1AB578C10}"/>
   </bookViews>
   <sheets>
     <sheet name="Server" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Petición</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Notificación de usuario eliminado</t>
+  </si>
+  <si>
+    <t>Otro usuario se desconecta</t>
   </si>
 </sst>
 </file>
@@ -181,10 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204BCBBA-238B-4E33-B50B-36D8865E5482}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,6 +625,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -694,6 +697,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8D1D9-70CE-4EFF-BA17-6A8B00B5C024}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +787,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -890,6 +894,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
